--- a/Support/Support Data/survival/BC survival.xlsx
+++ b/Support/Support Data/survival/BC survival.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cm1om\Documents\Research\Cancer\Bladder\Bladder_cancer_model\Support\Support Data\survival\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3669B0FE-271B-4B70-896A-B9C5D4553191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CED9F0-C179-4470-8549-21653DD8E4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CEB37473-6591-494F-9B0C-E97D5E01BB77}"/>
   </bookViews>
@@ -511,11 +511,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1968,20 +1968,20 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
     </row>
     <row r="2" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2020,14 +2020,14 @@
       <c r="L2" s="6">
         <v>100.5</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="8"/>
@@ -14540,14 +14540,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
@@ -16239,10 +16239,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2D6228-7E60-4F44-B6DF-7C8FA2F25650}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G37"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16278,26 +16278,22 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="23">
-        <f>mortality!C4</f>
-        <v>97.2</v>
-      </c>
-      <c r="E2" s="23">
-        <f>mortality!C15</f>
-        <v>80.475000000000009</v>
-      </c>
-      <c r="F2" s="23">
-        <f>mortality!C26</f>
-        <v>80.475000000000009</v>
-      </c>
-      <c r="G2" s="23">
-        <f>mortality!C37</f>
-        <v>47.9</v>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -16305,24 +16301,22 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="23">
-        <v>97.2</v>
-      </c>
-      <c r="E3" s="23">
-        <f>mortality!C15</f>
-        <v>80.475000000000009</v>
-      </c>
-      <c r="F3" s="23">
-        <f>mortality!C15</f>
-        <v>80.475000000000009</v>
-      </c>
-      <c r="G3" s="23">
-        <v>47.9</v>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -16330,26 +16324,22 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="23">
-        <f>mortality!C5</f>
-        <v>97.9</v>
-      </c>
-      <c r="E4" s="23">
-        <f>mortality!C16</f>
-        <v>85</v>
-      </c>
-      <c r="F4" s="23">
-        <f>mortality!C27</f>
-        <v>83.4</v>
-      </c>
-      <c r="G4" s="23">
-        <f>mortality!C38</f>
-        <v>44.9</v>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -16357,26 +16347,22 @@
         <v>55</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="23">
-        <f>mortality!C6</f>
-        <v>98</v>
-      </c>
-      <c r="E5" s="23">
-        <f>mortality!C17</f>
-        <v>85.6</v>
-      </c>
-      <c r="F5" s="23">
-        <f>mortality!C28</f>
-        <v>78.2</v>
-      </c>
-      <c r="G5" s="23">
-        <f>mortality!C39</f>
-        <v>42.3</v>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -16384,26 +16370,22 @@
         <v>65</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="25">
-        <v>1</v>
-      </c>
-      <c r="D6" s="26">
-        <f>mortality!C7</f>
-        <v>96.5</v>
-      </c>
-      <c r="E6" s="26">
-        <f>mortality!C18</f>
-        <v>80.617919921875</v>
-      </c>
-      <c r="F6" s="26">
-        <f>mortality!C29</f>
-        <v>75.5</v>
-      </c>
-      <c r="G6" s="26">
-        <f>mortality!C40</f>
-        <v>43</v>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -16411,26 +16393,22 @@
         <v>75</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="24">
         <v>1</v>
       </c>
-      <c r="C7" s="25">
-        <v>1</v>
-      </c>
-      <c r="D7" s="26">
-        <f>mortality!C8</f>
-        <v>92.7</v>
-      </c>
-      <c r="E7" s="26">
-        <f>mortality!C19</f>
-        <v>64.3</v>
-      </c>
-      <c r="F7" s="26">
-        <f>mortality!C30</f>
-        <v>59.8</v>
-      </c>
-      <c r="G7" s="26">
-        <f>mortality!C41</f>
-        <v>28.3</v>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -16438,26 +16416,22 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="25">
         <v>0</v>
       </c>
-      <c r="D8" s="26">
-        <f>mortality!C9</f>
-        <v>92.3</v>
-      </c>
-      <c r="E8" s="26">
-        <f>mortality!C20</f>
-        <v>61.594871794871793</v>
-      </c>
-      <c r="F8" s="26">
-        <f>mortality!C31</f>
-        <v>61.594871794871793</v>
-      </c>
-      <c r="G8" s="26">
-        <f>mortality!C42</f>
-        <v>36</v>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -16465,24 +16439,22 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="25">
         <v>0</v>
       </c>
-      <c r="D9" s="26">
-        <v>92.3</v>
-      </c>
-      <c r="E9" s="26">
-        <f>mortality!C20</f>
-        <v>61.594871794871793</v>
-      </c>
-      <c r="F9" s="26">
-        <f>mortality!C20</f>
-        <v>61.594871794871793</v>
-      </c>
-      <c r="G9" s="26">
-        <v>36</v>
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -16490,26 +16462,22 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="25">
         <v>0</v>
       </c>
-      <c r="D10" s="26">
-        <f>mortality!C10</f>
-        <v>97.6</v>
-      </c>
-      <c r="E10" s="26">
-        <f>mortality!C21</f>
-        <v>78.400000000000006</v>
-      </c>
-      <c r="F10" s="26">
-        <f>mortality!C32</f>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="G10" s="26">
-        <f>mortality!C43</f>
-        <v>37.299999999999997</v>
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -16517,26 +16485,22 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="26">
-        <f>mortality!C11</f>
-        <v>97.8</v>
-      </c>
-      <c r="E11" s="26">
-        <f>mortality!C22</f>
-        <v>78.2</v>
-      </c>
-      <c r="F11" s="26">
-        <f>mortality!C33</f>
-        <v>76</v>
-      </c>
-      <c r="G11" s="26">
-        <f>mortality!C44</f>
-        <v>38.700000000000003</v>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -16544,26 +16508,22 @@
         <v>65</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="25">
         <v>0</v>
       </c>
-      <c r="D12" s="26">
-        <f>mortality!C12</f>
-        <v>94.7</v>
-      </c>
-      <c r="E12" s="26">
-        <f>mortality!C23</f>
-        <v>72.599999999999994</v>
-      </c>
-      <c r="F12" s="26">
-        <f>mortality!C34</f>
-        <v>65.8</v>
-      </c>
-      <c r="G12" s="26">
-        <f>mortality!C45</f>
-        <v>34.799999999999997</v>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -16571,26 +16531,22 @@
         <v>75</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="26">
-        <f>mortality!C13</f>
-        <v>86.5</v>
-      </c>
-      <c r="E13" s="26">
-        <f>mortality!C24</f>
-        <v>55.5</v>
-      </c>
-      <c r="F13" s="26">
-        <f>mortality!C35</f>
-        <v>42.9</v>
-      </c>
-      <c r="G13" s="26">
-        <f>mortality!C46</f>
-        <v>19.899999999999999</v>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -16598,26 +16554,26 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" s="25">
         <v>1</v>
       </c>
-      <c r="D14" s="26">
-        <f>mortality!E4</f>
-        <v>84.7</v>
-      </c>
-      <c r="E14" s="26">
-        <f>mortality!E15</f>
-        <v>57.9</v>
-      </c>
-      <c r="F14" s="26">
-        <f>mortality!E26</f>
-        <v>51.5</v>
-      </c>
-      <c r="G14" s="26">
-        <f>mortality!E37</f>
-        <v>14.2</v>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="23">
+        <f>mortality!C4</f>
+        <v>97.2</v>
+      </c>
+      <c r="E14" s="23">
+        <f>mortality!C15</f>
+        <v>80.475000000000009</v>
+      </c>
+      <c r="F14" s="23">
+        <f>mortality!C26</f>
+        <v>80.475000000000009</v>
+      </c>
+      <c r="G14" s="23">
+        <f>mortality!C37</f>
+        <v>47.9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -16625,22 +16581,24 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" s="25">
         <v>1</v>
       </c>
-      <c r="D15" s="26">
-        <v>84.7</v>
-      </c>
-      <c r="E15" s="26">
-        <v>57.9</v>
-      </c>
-      <c r="F15" s="26">
-        <v>50.079736211031168</v>
-      </c>
-      <c r="G15" s="26">
-        <v>16.079905437352245</v>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23">
+        <v>97.2</v>
+      </c>
+      <c r="E15" s="23">
+        <f>mortality!C15</f>
+        <v>80.475000000000009</v>
+      </c>
+      <c r="F15" s="23">
+        <f>mortality!C15</f>
+        <v>80.475000000000009</v>
+      </c>
+      <c r="G15" s="23">
+        <v>47.9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -16648,25 +16606,26 @@
         <v>45</v>
       </c>
       <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" s="25">
         <v>1</v>
       </c>
-      <c r="D16" s="26">
-        <f>AVERAGE(D15,D17)</f>
-        <v>84.7</v>
-      </c>
-      <c r="E16" s="26">
-        <f t="shared" ref="E16:F16" si="0">AVERAGE(E15,E17)</f>
-        <v>57.9</v>
-      </c>
-      <c r="F16" s="26">
-        <f t="shared" si="0"/>
-        <v>50.789868105515581</v>
-      </c>
-      <c r="G16" s="26">
-        <v>13.968837209302325</v>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="23">
+        <f>mortality!C5</f>
+        <v>97.9</v>
+      </c>
+      <c r="E16" s="23">
+        <f>mortality!C16</f>
+        <v>85</v>
+      </c>
+      <c r="F16" s="23">
+        <f>mortality!C27</f>
+        <v>83.4</v>
+      </c>
+      <c r="G16" s="23">
+        <f>mortality!C38</f>
+        <v>44.9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -16674,25 +16633,26 @@
         <v>55</v>
       </c>
       <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" s="25">
         <v>1</v>
       </c>
-      <c r="D17" s="26">
-        <f>mortality!E5</f>
-        <v>84.7</v>
-      </c>
-      <c r="E17" s="26">
-        <f>mortality!E16</f>
-        <v>57.9</v>
-      </c>
-      <c r="F17" s="26">
-        <f>mortality!E27</f>
-        <v>51.5</v>
-      </c>
-      <c r="G17" s="26">
-        <v>14.2</v>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="23">
+        <f>mortality!C6</f>
+        <v>98</v>
+      </c>
+      <c r="E17" s="23">
+        <f>mortality!C17</f>
+        <v>85.6</v>
+      </c>
+      <c r="F17" s="23">
+        <f>mortality!C28</f>
+        <v>78.2</v>
+      </c>
+      <c r="G17" s="23">
+        <f>mortality!C39</f>
+        <v>42.3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -16700,25 +16660,26 @@
         <v>65</v>
       </c>
       <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="25">
         <v>1</v>
       </c>
-      <c r="D18" s="26">
-        <f>mortality!E6</f>
-        <v>87.6</v>
-      </c>
-      <c r="E18" s="26">
-        <f>mortality!E17</f>
-        <v>54.7</v>
-      </c>
-      <c r="F18" s="26">
-        <f>mortality!E28</f>
-        <v>51.5</v>
-      </c>
-      <c r="G18" s="26">
-        <v>15.4</v>
+      <c r="C18" s="24">
+        <v>1</v>
+      </c>
+      <c r="D18" s="25">
+        <f>mortality!C7</f>
+        <v>96.5</v>
+      </c>
+      <c r="E18" s="25">
+        <f>mortality!C18</f>
+        <v>80.617919921875</v>
+      </c>
+      <c r="F18" s="25">
+        <f>mortality!C29</f>
+        <v>75.5</v>
+      </c>
+      <c r="G18" s="25">
+        <f>mortality!C40</f>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -16726,26 +16687,26 @@
         <v>75</v>
       </c>
       <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" s="25">
         <v>1</v>
       </c>
-      <c r="D19" s="26">
-        <f>mortality!E7</f>
-        <v>81.2</v>
-      </c>
-      <c r="E19" s="26">
-        <f>mortality!E18</f>
-        <v>53.9866943359375</v>
-      </c>
-      <c r="F19" s="26">
-        <f>mortality!E29</f>
-        <v>48</v>
-      </c>
-      <c r="G19" s="26">
-        <f>mortality!E40</f>
-        <v>15.4</v>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="25">
+        <f>mortality!C8</f>
+        <v>92.7</v>
+      </c>
+      <c r="E19" s="25">
+        <f>mortality!C19</f>
+        <v>64.3</v>
+      </c>
+      <c r="F19" s="25">
+        <f>mortality!C30</f>
+        <v>59.8</v>
+      </c>
+      <c r="G19" s="25">
+        <f>mortality!C41</f>
+        <v>28.3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -16753,26 +16714,26 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" s="25">
+        <v>1</v>
+      </c>
+      <c r="C20" s="24">
         <v>0</v>
       </c>
-      <c r="D20" s="26">
-        <f>mortality!E9</f>
-        <v>86.5</v>
-      </c>
-      <c r="E20" s="26">
-        <f>mortality!E20</f>
-        <v>52.343017578125</v>
-      </c>
-      <c r="F20" s="26">
-        <f>mortality!E31</f>
-        <v>43</v>
-      </c>
-      <c r="G20" s="26">
-        <f>mortality!E42</f>
-        <v>8.3000000000000007</v>
+      <c r="D20" s="25">
+        <f>mortality!C9</f>
+        <v>92.3</v>
+      </c>
+      <c r="E20" s="25">
+        <f>mortality!C20</f>
+        <v>61.594871794871793</v>
+      </c>
+      <c r="F20" s="25">
+        <f>mortality!C31</f>
+        <v>61.594871794871793</v>
+      </c>
+      <c r="G20" s="25">
+        <f>mortality!C42</f>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -16780,23 +16741,24 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" s="25">
+        <v>1</v>
+      </c>
+      <c r="C21" s="24">
         <v>0</v>
       </c>
-      <c r="D21" s="26">
-        <v>81.635480572597132</v>
-      </c>
-      <c r="E21" s="26">
-        <f>mortality!E20</f>
-        <v>52.343017578125</v>
-      </c>
-      <c r="F21" s="26">
-        <v>42.49078947368421</v>
-      </c>
-      <c r="G21" s="26">
-        <v>11.215396229413752</v>
+      <c r="D21" s="25">
+        <v>92.3</v>
+      </c>
+      <c r="E21" s="25">
+        <f>mortality!C20</f>
+        <v>61.594871794871793</v>
+      </c>
+      <c r="F21" s="25">
+        <f>mortality!C20</f>
+        <v>61.594871794871793</v>
+      </c>
+      <c r="G21" s="25">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -16804,26 +16766,26 @@
         <v>45</v>
       </c>
       <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" s="25">
+        <v>1</v>
+      </c>
+      <c r="C22" s="24">
         <v>0</v>
       </c>
-      <c r="D22" s="26">
-        <f>mortality!E10</f>
-        <v>86.5</v>
-      </c>
-      <c r="E22" s="26">
-        <f>mortality!E21</f>
-        <v>52.343017578125</v>
-      </c>
-      <c r="F22" s="26">
-        <f>mortality!E32</f>
-        <v>43</v>
-      </c>
-      <c r="G22" s="26">
-        <f>mortality!E42</f>
-        <v>8.3000000000000007</v>
+      <c r="D22" s="25">
+        <f>mortality!C10</f>
+        <v>97.6</v>
+      </c>
+      <c r="E22" s="25">
+        <f>mortality!C21</f>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F22" s="25">
+        <f>mortality!C32</f>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G22" s="25">
+        <f>mortality!C43</f>
+        <v>37.299999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -16831,26 +16793,26 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" s="25">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24">
         <v>0</v>
       </c>
-      <c r="D23" s="26">
-        <f>mortality!E11</f>
-        <v>86.5</v>
-      </c>
-      <c r="E23" s="26">
-        <f>mortality!E22</f>
-        <v>48.255647382920117</v>
-      </c>
-      <c r="F23" s="26">
-        <f>mortality!E33</f>
-        <v>43</v>
-      </c>
-      <c r="G23" s="26">
-        <f>mortality!E43</f>
-        <v>8.3000000000000007</v>
+      <c r="D23" s="25">
+        <f>mortality!C11</f>
+        <v>97.8</v>
+      </c>
+      <c r="E23" s="25">
+        <f>mortality!C22</f>
+        <v>78.2</v>
+      </c>
+      <c r="F23" s="25">
+        <f>mortality!C33</f>
+        <v>76</v>
+      </c>
+      <c r="G23" s="25">
+        <f>mortality!C44</f>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -16858,26 +16820,26 @@
         <v>65</v>
       </c>
       <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" s="25">
+        <v>1</v>
+      </c>
+      <c r="C24" s="24">
         <v>0</v>
       </c>
-      <c r="D24" s="26">
-        <f>mortality!E12</f>
-        <v>81</v>
-      </c>
-      <c r="E24" s="26">
-        <f>mortality!E23</f>
-        <v>44.8</v>
-      </c>
-      <c r="F24" s="26">
-        <f>mortality!E34</f>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="G24" s="26">
-        <f>mortality!E44</f>
-        <v>8.3000000000000007</v>
+      <c r="D24" s="25">
+        <f>mortality!C12</f>
+        <v>94.7</v>
+      </c>
+      <c r="E24" s="25">
+        <f>mortality!C23</f>
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F24" s="25">
+        <f>mortality!C34</f>
+        <v>65.8</v>
+      </c>
+      <c r="G24" s="25">
+        <f>mortality!C45</f>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -16885,26 +16847,26 @@
         <v>75</v>
       </c>
       <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="24">
         <v>0</v>
       </c>
-      <c r="D25" s="26">
-        <f>mortality!E13</f>
-        <v>67.599999999999994</v>
-      </c>
-      <c r="E25" s="26">
-        <f>mortality!E24</f>
-        <v>27.3</v>
-      </c>
-      <c r="F25" s="26">
-        <f>mortality!E35</f>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="G25" s="26">
-        <f>mortality!E45</f>
-        <v>8.3000000000000007</v>
+      <c r="D25" s="25">
+        <f>mortality!C13</f>
+        <v>86.5</v>
+      </c>
+      <c r="E25" s="25">
+        <f>mortality!C24</f>
+        <v>55.5</v>
+      </c>
+      <c r="F25" s="25">
+        <f>mortality!C35</f>
+        <v>42.9</v>
+      </c>
+      <c r="G25" s="25">
+        <f>mortality!C46</f>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -16912,26 +16874,26 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26" s="25">
+        <v>5</v>
+      </c>
+      <c r="C26" s="24">
         <v>1</v>
       </c>
-      <c r="D26" s="26">
-        <f>mortality!F4</f>
-        <v>72.923529411764704</v>
-      </c>
-      <c r="E26" s="26">
-        <f>mortality!F15</f>
-        <v>49.84973262032085</v>
-      </c>
-      <c r="F26" s="26">
-        <f>mortality!F26</f>
-        <v>43.116778235165867</v>
-      </c>
-      <c r="G26" s="26">
-        <f>mortality!F37</f>
-        <v>13.844196659966371</v>
+      <c r="D26" s="25">
+        <f>mortality!E4</f>
+        <v>84.7</v>
+      </c>
+      <c r="E26" s="25">
+        <f>mortality!E15</f>
+        <v>57.9</v>
+      </c>
+      <c r="F26" s="25">
+        <f>mortality!E26</f>
+        <v>51.5</v>
+      </c>
+      <c r="G26" s="25">
+        <f>mortality!E37</f>
+        <v>14.2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -16939,26 +16901,22 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27" s="25">
+        <v>5</v>
+      </c>
+      <c r="C27" s="24">
         <v>1</v>
       </c>
-      <c r="D27" s="26">
-        <f>D26+($D$29-$D$26)/4</f>
-        <v>73.547727272727272</v>
-      </c>
-      <c r="E27" s="26">
-        <f t="shared" ref="E27:F28" si="1">E26+($D$29-$D$26)/4</f>
-        <v>50.473930481283418</v>
-      </c>
-      <c r="F27" s="26">
-        <f t="shared" si="1"/>
-        <v>43.740976096128435</v>
-      </c>
-      <c r="G27" s="26">
-        <f>mortality!F38</f>
-        <v>12.977127975626095</v>
+      <c r="D27" s="25">
+        <v>84.7</v>
+      </c>
+      <c r="E27" s="25">
+        <v>57.9</v>
+      </c>
+      <c r="F27" s="25">
+        <v>50.079736211031168</v>
+      </c>
+      <c r="G27" s="25">
+        <v>16.079905437352245</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -16966,25 +16924,25 @@
         <v>45</v>
       </c>
       <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28" s="25">
+        <v>5</v>
+      </c>
+      <c r="C28" s="24">
         <v>1</v>
       </c>
-      <c r="D28" s="26">
-        <f>D27+($D$29-$D$26)/4</f>
-        <v>74.17192513368984</v>
-      </c>
-      <c r="E28" s="26">
-        <f t="shared" si="1"/>
-        <v>51.098128342245985</v>
-      </c>
-      <c r="F28" s="26">
-        <f t="shared" si="1"/>
-        <v>44.365173957091002</v>
-      </c>
-      <c r="G28" s="26">
-        <v>12.977127975626095</v>
+      <c r="D28" s="25">
+        <f>AVERAGE(D27,D29)</f>
+        <v>84.7</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" ref="E28:F28" si="0">AVERAGE(E27,E29)</f>
+        <v>57.9</v>
+      </c>
+      <c r="F28" s="25">
+        <f t="shared" si="0"/>
+        <v>50.789868105515581</v>
+      </c>
+      <c r="G28" s="25">
+        <v>13.968837209302325</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -16992,25 +16950,25 @@
         <v>55</v>
       </c>
       <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29" s="25">
+        <v>5</v>
+      </c>
+      <c r="C29" s="24">
         <v>1</v>
       </c>
-      <c r="D29" s="26">
-        <f>mortality!F5</f>
-        <v>75.42032085561496</v>
-      </c>
-      <c r="E29" s="26">
-        <f>mortality!F16</f>
-        <v>47.094652406417111</v>
-      </c>
-      <c r="F29" s="26">
-        <f>mortality!F27</f>
-        <v>44.339572192513366</v>
-      </c>
-      <c r="G29" s="26">
-        <v>12.225668449197858</v>
+      <c r="D29" s="25">
+        <f>mortality!E5</f>
+        <v>84.7</v>
+      </c>
+      <c r="E29" s="25">
+        <f>mortality!E16</f>
+        <v>57.9</v>
+      </c>
+      <c r="F29" s="25">
+        <f>mortality!E27</f>
+        <v>51.5</v>
+      </c>
+      <c r="G29" s="25">
+        <v>14.2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -17018,24 +16976,25 @@
         <v>65</v>
       </c>
       <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30" s="25">
+        <v>5</v>
+      </c>
+      <c r="C30" s="24">
         <v>1</v>
       </c>
-      <c r="D30" s="26">
-        <f>mortality!F6</f>
-        <v>69.910160427807483</v>
-      </c>
-      <c r="E30" s="26">
-        <f>mortality!F17</f>
-        <v>46.480522930940836</v>
-      </c>
-      <c r="F30" s="26">
-        <v>27.378609625668446</v>
-      </c>
-      <c r="G30" s="26">
-        <v>13.258823529411764</v>
+      <c r="D30" s="25">
+        <f>mortality!E6</f>
+        <v>87.6</v>
+      </c>
+      <c r="E30" s="25">
+        <f>mortality!E17</f>
+        <v>54.7</v>
+      </c>
+      <c r="F30" s="25">
+        <f>mortality!E28</f>
+        <v>51.5</v>
+      </c>
+      <c r="G30" s="25">
+        <v>15.4</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -17043,26 +17002,26 @@
         <v>75</v>
       </c>
       <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31" s="25">
+        <v>5</v>
+      </c>
+      <c r="C31" s="24">
         <v>1</v>
       </c>
-      <c r="D31" s="26">
-        <f>mortality!F7</f>
-        <v>60.009090909090901</v>
-      </c>
-      <c r="E31" s="26">
-        <f>mortality!F18</f>
-        <v>29.27272727272727</v>
-      </c>
-      <c r="F31" s="26">
-        <f>mortality!F29</f>
-        <v>27.378609625668446</v>
-      </c>
-      <c r="G31" s="26">
-        <f>mortality!F40</f>
-        <v>13.258823529411764</v>
+      <c r="D31" s="25">
+        <f>mortality!E7</f>
+        <v>81.2</v>
+      </c>
+      <c r="E31" s="25">
+        <f>mortality!E18</f>
+        <v>53.9866943359375</v>
+      </c>
+      <c r="F31" s="25">
+        <f>mortality!E29</f>
+        <v>48</v>
+      </c>
+      <c r="G31" s="25">
+        <f>mortality!E40</f>
+        <v>15.4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -17070,26 +17029,26 @@
         <v>25</v>
       </c>
       <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32" s="25">
+        <v>5</v>
+      </c>
+      <c r="C32" s="24">
         <v>0</v>
       </c>
-      <c r="D32" s="26">
-        <f>mortality!F9</f>
-        <v>76.294841656632883</v>
-      </c>
-      <c r="E32" s="26">
-        <f>mortality!F20</f>
-        <v>48.918708016939284</v>
-      </c>
-      <c r="F32" s="26">
-        <f>mortality!F31</f>
-        <v>40.186915887850489</v>
-      </c>
-      <c r="G32" s="26">
-        <f>mortality!$F$42</f>
-        <v>7.7570093457943976</v>
+      <c r="D32" s="25">
+        <f>mortality!E9</f>
+        <v>86.5</v>
+      </c>
+      <c r="E32" s="25">
+        <f>mortality!E20</f>
+        <v>52.343017578125</v>
+      </c>
+      <c r="F32" s="25">
+        <f>mortality!E31</f>
+        <v>43</v>
+      </c>
+      <c r="G32" s="25">
+        <f>mortality!E42</f>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -17097,25 +17056,23 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33" s="25">
+        <v>5</v>
+      </c>
+      <c r="C33" s="24">
         <v>0</v>
       </c>
-      <c r="D33" s="26">
-        <v>76.294841656632883</v>
-      </c>
-      <c r="E33" s="26">
-        <f>mortality!F21</f>
-        <v>48.918708016939284</v>
-      </c>
-      <c r="F33" s="26">
-        <f>mortality!F32</f>
-        <v>40.186915887850489</v>
-      </c>
-      <c r="G33" s="26">
-        <f>mortality!$F$42</f>
-        <v>7.7570093457943976</v>
+      <c r="D33" s="25">
+        <v>81.635480572597132</v>
+      </c>
+      <c r="E33" s="25">
+        <f>mortality!E20</f>
+        <v>52.343017578125</v>
+      </c>
+      <c r="F33" s="25">
+        <v>42.49078947368421</v>
+      </c>
+      <c r="G33" s="25">
+        <v>11.215396229413752</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -17123,26 +17080,26 @@
         <v>45</v>
       </c>
       <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34" s="25">
+        <v>5</v>
+      </c>
+      <c r="C34" s="24">
         <v>0</v>
       </c>
-      <c r="D34" s="26">
-        <f>mortality!F10</f>
-        <v>80.675802228465528</v>
-      </c>
-      <c r="E34" s="26">
-        <f>mortality!F21</f>
-        <v>48.918708016939284</v>
-      </c>
-      <c r="F34" s="26">
-        <f>mortality!F32</f>
-        <v>40.186915887850489</v>
-      </c>
-      <c r="G34" s="26">
-        <f>mortality!$F$42</f>
-        <v>7.7570093457943976</v>
+      <c r="D34" s="25">
+        <f>mortality!E10</f>
+        <v>86.5</v>
+      </c>
+      <c r="E34" s="25">
+        <f>mortality!E21</f>
+        <v>52.343017578125</v>
+      </c>
+      <c r="F34" s="25">
+        <f>mortality!E32</f>
+        <v>43</v>
+      </c>
+      <c r="G34" s="25">
+        <f>mortality!E42</f>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -17150,26 +17107,26 @@
         <v>55</v>
       </c>
       <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35" s="25">
+        <v>5</v>
+      </c>
+      <c r="C35" s="24">
         <v>0</v>
       </c>
-      <c r="D35" s="26">
-        <f>mortality!F11</f>
-        <v>80.841121495327144</v>
-      </c>
-      <c r="E35" s="26">
-        <f>mortality!F22</f>
-        <v>45.098735871887975</v>
-      </c>
-      <c r="F35" s="26">
-        <f>mortality!F33</f>
-        <v>40.186915887850489</v>
-      </c>
-      <c r="G35" s="26">
-        <f>mortality!$F$42</f>
-        <v>7.7570093457943976</v>
+      <c r="D35" s="25">
+        <f>mortality!E11</f>
+        <v>86.5</v>
+      </c>
+      <c r="E35" s="25">
+        <f>mortality!E22</f>
+        <v>48.255647382920117</v>
+      </c>
+      <c r="F35" s="25">
+        <f>mortality!E33</f>
+        <v>43</v>
+      </c>
+      <c r="G35" s="25">
+        <f>mortality!E43</f>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -17177,26 +17134,26 @@
         <v>65</v>
       </c>
       <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36" s="25">
+        <v>5</v>
+      </c>
+      <c r="C36" s="24">
         <v>0</v>
       </c>
-      <c r="D36" s="26">
-        <f>mortality!F12</f>
-        <v>75.700934579439291</v>
-      </c>
-      <c r="E36" s="26">
-        <f>mortality!F23</f>
-        <v>41.869158878504692</v>
-      </c>
-      <c r="F36" s="26">
-        <f>mortality!F34</f>
-        <v>16.9158878504673</v>
-      </c>
-      <c r="G36" s="26">
-        <f>mortality!$F$42</f>
-        <v>7.7570093457943976</v>
+      <c r="D36" s="25">
+        <f>mortality!E12</f>
+        <v>81</v>
+      </c>
+      <c r="E36" s="25">
+        <f>mortality!E23</f>
+        <v>44.8</v>
+      </c>
+      <c r="F36" s="25">
+        <f>mortality!E34</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G36" s="25">
+        <f>mortality!E44</f>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -17204,24 +17161,343 @@
         <v>75</v>
       </c>
       <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0</v>
+      </c>
+      <c r="D37" s="25">
+        <f>mortality!E13</f>
+        <v>67.599999999999994</v>
+      </c>
+      <c r="E37" s="25">
+        <f>mortality!E24</f>
+        <v>27.3</v>
+      </c>
+      <c r="F37" s="25">
+        <f>mortality!E35</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G37" s="25">
+        <f>mortality!E45</f>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>25</v>
+      </c>
+      <c r="B38">
         <v>10</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C38" s="24">
+        <v>1</v>
+      </c>
+      <c r="D38" s="25">
+        <f>mortality!F4</f>
+        <v>72.923529411764704</v>
+      </c>
+      <c r="E38" s="25">
+        <f>mortality!F15</f>
+        <v>49.84973262032085</v>
+      </c>
+      <c r="F38" s="25">
+        <f>mortality!F26</f>
+        <v>43.116778235165867</v>
+      </c>
+      <c r="G38" s="25">
+        <f>mortality!F37</f>
+        <v>13.844196659966371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" s="24">
+        <v>1</v>
+      </c>
+      <c r="D39" s="25">
+        <f>D38+($D$41-$D$38)/4</f>
+        <v>73.547727272727272</v>
+      </c>
+      <c r="E39" s="25">
+        <f>E38+($D$41-$D$38)/4</f>
+        <v>50.473930481283418</v>
+      </c>
+      <c r="F39" s="25">
+        <f>F38+($D$41-$D$38)/4</f>
+        <v>43.740976096128435</v>
+      </c>
+      <c r="G39" s="25">
+        <f>mortality!F38</f>
+        <v>12.977127975626095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" s="24">
+        <v>1</v>
+      </c>
+      <c r="D40" s="25">
+        <f>D39+($D$41-$D$38)/4</f>
+        <v>74.17192513368984</v>
+      </c>
+      <c r="E40" s="25">
+        <f>E39+($D$41-$D$38)/4</f>
+        <v>51.098128342245985</v>
+      </c>
+      <c r="F40" s="25">
+        <f>F39+($D$41-$D$38)/4</f>
+        <v>44.365173957091002</v>
+      </c>
+      <c r="G40" s="25">
+        <v>12.977127975626095</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" s="24">
+        <v>1</v>
+      </c>
+      <c r="D41" s="25">
+        <f>mortality!F5</f>
+        <v>75.42032085561496</v>
+      </c>
+      <c r="E41" s="25">
+        <f>mortality!F16</f>
+        <v>47.094652406417111</v>
+      </c>
+      <c r="F41" s="25">
+        <f>mortality!F27</f>
+        <v>44.339572192513366</v>
+      </c>
+      <c r="G41" s="25">
+        <v>12.225668449197858</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>65</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1</v>
+      </c>
+      <c r="D42" s="25">
+        <f>mortality!F6</f>
+        <v>69.910160427807483</v>
+      </c>
+      <c r="E42" s="25">
+        <f>mortality!F17</f>
+        <v>46.480522930940836</v>
+      </c>
+      <c r="F42" s="25">
+        <v>27.378609625668446</v>
+      </c>
+      <c r="G42" s="25">
+        <v>13.258823529411764</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" s="24">
+        <v>1</v>
+      </c>
+      <c r="D43" s="25">
+        <f>mortality!F7</f>
+        <v>60.009090909090901</v>
+      </c>
+      <c r="E43" s="25">
+        <f>mortality!F18</f>
+        <v>29.27272727272727</v>
+      </c>
+      <c r="F43" s="25">
+        <f>mortality!F29</f>
+        <v>27.378609625668446</v>
+      </c>
+      <c r="G43" s="25">
+        <f>mortality!F40</f>
+        <v>13.258823529411764</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>25</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" s="24">
         <v>0</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D44" s="25">
+        <f>mortality!F9</f>
+        <v>76.294841656632883</v>
+      </c>
+      <c r="E44" s="25">
+        <f>mortality!F20</f>
+        <v>48.918708016939284</v>
+      </c>
+      <c r="F44" s="25">
+        <f>mortality!F31</f>
+        <v>40.186915887850489</v>
+      </c>
+      <c r="G44" s="25">
+        <f>mortality!$F$42</f>
+        <v>7.7570093457943976</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0</v>
+      </c>
+      <c r="D45" s="25">
+        <v>76.294841656632883</v>
+      </c>
+      <c r="E45" s="25">
+        <f>mortality!F21</f>
+        <v>48.918708016939284</v>
+      </c>
+      <c r="F45" s="25">
+        <f>mortality!F32</f>
+        <v>40.186915887850489</v>
+      </c>
+      <c r="G45" s="25">
+        <f>mortality!$F$42</f>
+        <v>7.7570093457943976</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0</v>
+      </c>
+      <c r="D46" s="25">
+        <f>mortality!F10</f>
+        <v>80.675802228465528</v>
+      </c>
+      <c r="E46" s="25">
+        <f>mortality!F21</f>
+        <v>48.918708016939284</v>
+      </c>
+      <c r="F46" s="25">
+        <f>mortality!F32</f>
+        <v>40.186915887850489</v>
+      </c>
+      <c r="G46" s="25">
+        <f>mortality!$F$42</f>
+        <v>7.7570093457943976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0</v>
+      </c>
+      <c r="D47" s="25">
+        <f>mortality!F11</f>
+        <v>80.841121495327144</v>
+      </c>
+      <c r="E47" s="25">
+        <f>mortality!F22</f>
+        <v>45.098735871887975</v>
+      </c>
+      <c r="F47" s="25">
+        <f>mortality!F33</f>
+        <v>40.186915887850489</v>
+      </c>
+      <c r="G47" s="25">
+        <f>mortality!$F$42</f>
+        <v>7.7570093457943976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>65</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48" s="24">
+        <v>0</v>
+      </c>
+      <c r="D48" s="25">
+        <f>mortality!F12</f>
+        <v>75.700934579439291</v>
+      </c>
+      <c r="E48" s="25">
+        <f>mortality!F23</f>
+        <v>41.869158878504692</v>
+      </c>
+      <c r="F48" s="25">
+        <f>mortality!F34</f>
+        <v>16.9158878504673</v>
+      </c>
+      <c r="G48" s="25">
+        <f>mortality!$F$42</f>
+        <v>7.7570093457943976</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>75</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0</v>
+      </c>
+      <c r="D49" s="25">
         <f>mortality!F13</f>
         <v>63.177570093457973</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E49" s="25">
         <f>mortality!F24</f>
         <v>25.514018691588802</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F49" s="25">
         <f>mortality!F35</f>
         <v>11.028747549924729</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G49" s="25">
         <f>mortality!$F$42</f>
         <v>7.7570093457943976</v>
       </c>

--- a/Support/Support Data/survival/BC survival.xlsx
+++ b/Support/Support Data/survival/BC survival.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cm1om\Documents\Research\Cancer\Bladder\Bladder_cancer_model\Support\Support Data\survival\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CED9F0-C179-4470-8549-21653DD8E4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D984DED9-62F7-460E-944F-8D79DBFED013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CEB37473-6591-494F-9B0C-E97D5E01BB77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CEB37473-6591-494F-9B0C-E97D5E01BB77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="62">
   <si>
     <t>Cancer site</t>
   </si>
@@ -268,9 +268,6 @@
     </r>
   </si>
   <si>
-    <t>Years after Diagnosis</t>
-  </si>
-  <si>
     <t>Ratio 5/1 year</t>
   </si>
   <si>
@@ -407,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -424,41 +421,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -496,12 +465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,6 +479,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -533,1092 +504,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Yearly</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> 10-year survival for 15-44 year old men diagnosed at stage 1 BC</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.16709711286089238"/>
-                  <c:y val="0.12748250218722659"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$AH$11:$AH$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AI$11:$AI$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72.923529411764704</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-77D2-4760-9485-7090B0E2F2B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1016879199"/>
-        <c:axId val="1016880447"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1016879199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Years since diagnosis</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1016880447"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1016880447"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Proportion surviving, %</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1016879199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CECB18E-FBBB-4981-8B60-DC1570ADF42B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1920,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D40557-BB4B-40BD-B462-28670AE2DA58}">
   <dimension ref="A1:AI288"/>
   <sheetViews>
-    <sheetView topLeftCell="K19" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,20 +853,20 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2020,14 +905,14 @@
       <c r="L2" s="6">
         <v>100.5</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="8"/>
@@ -2223,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD6" s="11" t="s">
         <v>44</v>
@@ -2277,7 +1162,7 @@
         <v>45</v>
       </c>
       <c r="AE7">
-        <v>0.86096256684491967</v>
+        <v>0.86096256684492001</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -2347,15 +1232,15 @@
       </c>
       <c r="Y8" s="12">
         <f>V8*$AE$7</f>
-        <v>72.923529411764704</v>
+        <v>72.923529411764733</v>
       </c>
       <c r="Z8" s="12">
         <f t="shared" ref="Z8:AA8" si="0">W8*$AE$7</f>
-        <v>69.135294117647049</v>
+        <v>69.135294117647078</v>
       </c>
       <c r="AA8" s="12">
         <f t="shared" si="0"/>
-        <v>76.711764705882345</v>
+        <v>76.711764705882374</v>
       </c>
       <c r="AB8">
         <f>V8/R8</f>
@@ -2426,16 +1311,16 @@
         <v>90.2</v>
       </c>
       <c r="Y9" s="12">
-        <f t="shared" ref="Y9:Y11" si="1">V9*$AE$7</f>
-        <v>75.42032085561496</v>
+        <f>V9*$AE$7</f>
+        <v>75.420320855614989</v>
       </c>
       <c r="Z9" s="12">
-        <f t="shared" ref="Z9:Z11" si="2">W9*$AE$7</f>
-        <v>73.181818181818173</v>
+        <f t="shared" ref="Z9:Z11" si="1">W9*$AE$7</f>
+        <v>73.181818181818201</v>
       </c>
       <c r="AA9" s="12">
-        <f t="shared" ref="AA9:AA11" si="3">X9*$AE$7</f>
-        <v>77.658823529411762</v>
+        <f t="shared" ref="AA9:AA11" si="2">X9*$AE$7</f>
+        <v>77.658823529411791</v>
       </c>
       <c r="AH9" s="14" t="s">
         <v>47</v>
@@ -2505,19 +1390,19 @@
         <v>83.4</v>
       </c>
       <c r="Y10" s="12">
+        <f>V10*$AE$7</f>
+        <v>69.910160427807511</v>
+      </c>
+      <c r="Z10" s="12">
         <f t="shared" si="1"/>
-        <v>69.910160427807483</v>
-      </c>
-      <c r="Z10" s="12">
+        <v>68.102139037433162</v>
+      </c>
+      <c r="AA10" s="12">
         <f t="shared" si="2"/>
-        <v>68.102139037433147</v>
-      </c>
-      <c r="AA10" s="12">
-        <f t="shared" si="3"/>
-        <v>71.804278074866303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71.804278074866332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2581,25 +1466,25 @@
         <v>72.900000000000006</v>
       </c>
       <c r="Y11" s="12">
+        <f>V11*$AE$7</f>
+        <v>60.009090909090929</v>
+      </c>
+      <c r="Z11" s="12">
         <f t="shared" si="1"/>
-        <v>60.009090909090901</v>
-      </c>
-      <c r="Z11" s="12">
+        <v>57.254010695187183</v>
+      </c>
+      <c r="AA11" s="12">
         <f t="shared" si="2"/>
-        <v>57.254010695187155</v>
-      </c>
-      <c r="AA11" s="12">
-        <f t="shared" si="3"/>
-        <v>62.764171122994647</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62.764171122994675</v>
+      </c>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AI11" s="15"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -2650,18 +1535,14 @@
       <c r="T12" s="6">
         <v>93.6</v>
       </c>
-      <c r="AD12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH12">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="12">
-        <f>R8</f>
-        <v>97.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AI12" s="12"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -2722,37 +1603,33 @@
         <v>81.635480572597132</v>
       </c>
       <c r="W13" s="6">
-        <f t="shared" ref="W13:X13" si="4">W15*S$13/S$15</f>
+        <f t="shared" ref="W13:X13" si="3">W15*S$13/S$15</f>
         <v>69.907995846313597</v>
       </c>
       <c r="X13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>93.952515090543258</v>
       </c>
       <c r="Y13" s="12">
-        <f>Y15*R$13/R$15</f>
+        <f>V13*$AE$6</f>
         <v>76.294841656632883</v>
       </c>
       <c r="Z13" s="12">
-        <f t="shared" ref="Z13" si="5">Z15*S$13/S$15</f>
+        <f t="shared" ref="Z13" si="4">Z15*S$13/S$15</f>
         <v>65.334575557302472</v>
       </c>
       <c r="AA13" s="12">
         <f>AA15*T$13/T$15</f>
         <v>87.806088869666652</v>
       </c>
-      <c r="AD13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>5</v>
-      </c>
-      <c r="AI13" s="12">
-        <f>V8</f>
-        <v>84.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AI13" s="12"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -2811,16 +1688,16 @@
         <v>86.323108384458081</v>
       </c>
       <c r="W14" s="6">
-        <f t="shared" ref="W14:X14" si="6">W15*S$14/S$15</f>
+        <f t="shared" ref="W14:X14" si="5">W15*S$14/S$15</f>
         <v>80.440913811007277</v>
       </c>
       <c r="X14" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>92.117505030181093</v>
       </c>
-      <c r="Y14">
-        <f>Y15*R$14/R$15</f>
-        <v>80.675802228465528</v>
+      <c r="Y14" s="12">
+        <f t="shared" ref="Y14:Y17" si="6">V14*$AE$6</f>
+        <v>80.675802228465542</v>
       </c>
       <c r="Z14">
         <f t="shared" ref="Z14:AA14" si="7">Z15*S$14/S$15</f>
@@ -2830,22 +1707,14 @@
         <f t="shared" si="7"/>
         <v>86.091126196430977</v>
       </c>
-      <c r="AD14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="12">
-        <f>R8</f>
-        <v>97.2</v>
-      </c>
-      <c r="AH14">
-        <v>10</v>
-      </c>
-      <c r="AI14" s="12">
-        <f>Y8</f>
-        <v>72.923529411764704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AI14" s="12"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -2909,7 +1778,7 @@
         <v>91.2</v>
       </c>
       <c r="Y15" s="12">
-        <f>V15*$AE$6</f>
+        <f t="shared" si="6"/>
         <v>80.841121495327144</v>
       </c>
       <c r="Z15" s="12">
@@ -2920,15 +1789,13 @@
         <f t="shared" si="8"/>
         <v>85.23364485981314</v>
       </c>
-      <c r="AD15" s="16">
-        <v>2</v>
-      </c>
-      <c r="AE15">
-        <f>1-((1-AE18/AE14)/(1-5)*(1-2/5))</f>
-        <v>1.0192901234567902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -2992,7 +1859,7 @@
         <v>84.7</v>
       </c>
       <c r="Y16" s="12">
-        <f t="shared" ref="Y16:Y17" si="9">V16*$AE$6</f>
+        <f t="shared" si="6"/>
         <v>75.700934579439291</v>
       </c>
       <c r="Z16" s="12">
@@ -3000,14 +1867,16 @@
         <v>72.149532710280425</v>
       </c>
       <c r="AA16" s="12">
-        <f t="shared" ref="AA16:AA17" si="10">X16*$AE$6</f>
+        <f>X16*$AE$6</f>
         <v>79.158878504672941</v>
       </c>
-      <c r="AD16" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -3071,22 +1940,24 @@
         <v>72.400000000000006</v>
       </c>
       <c r="Y17" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>63.177570093457973</v>
       </c>
       <c r="Z17" s="12">
-        <f t="shared" ref="Z17" si="11">W17*$AE$6</f>
+        <f t="shared" ref="Z17" si="9">W17*$AE$6</f>
         <v>58.785046728971999</v>
       </c>
       <c r="AA17" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AA16:AA17" si="10">X17*$AE$6</f>
         <v>67.663551401869199</v>
       </c>
-      <c r="AD17" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -3127,15 +1998,13 @@
       <c r="P18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD18" s="16">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="12">
-        <f>V8</f>
-        <v>84.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -3202,21 +2071,23 @@
       </c>
       <c r="Y19" s="12">
         <f>V19*$AE$7</f>
-        <v>49.84973262032085</v>
+        <v>49.849732620320864</v>
       </c>
       <c r="Z19" s="12">
-        <f t="shared" ref="Z19:AA19" si="12">W19*$AE$7</f>
-        <v>43.552598596256679</v>
+        <f t="shared" ref="Z19:AA19" si="11">W19*$AE$7</f>
+        <v>43.552598596256693</v>
       </c>
       <c r="AA19" s="12">
-        <f t="shared" si="12"/>
-        <v>56.134759358288768</v>
-      </c>
-      <c r="AD19" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>56.13475935828879</v>
+      </c>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -3280,22 +2151,24 @@
         <v>59.2</v>
       </c>
       <c r="Y20" s="12">
-        <f t="shared" ref="Y20:Y22" si="13">V20*$AE$7</f>
-        <v>47.094652406417111</v>
+        <f>V20*$AE$7</f>
+        <v>47.094652406417126</v>
       </c>
       <c r="Z20" s="12">
-        <f t="shared" ref="Z20:Z22" si="14">W20*$AE$7</f>
-        <v>43.304041898186824</v>
+        <f t="shared" ref="Z20:Z22" si="12">W20*$AE$7</f>
+        <v>43.304041898186846</v>
       </c>
       <c r="AA20" s="12">
-        <f t="shared" ref="AA20:AA22" si="15">X20*$AE$7</f>
-        <v>50.968983957219244</v>
-      </c>
-      <c r="AD20" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AA20:AA22" si="13">X20*$AE$7</f>
+        <v>50.968983957219265</v>
+      </c>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -3359,22 +2232,24 @@
         <v>57.1</v>
       </c>
       <c r="Y21" s="12">
+        <f>V21*$AE$7</f>
+        <v>46.480522930940857</v>
+      </c>
+      <c r="Z21" s="12">
+        <f t="shared" si="12"/>
+        <v>43.822994652406429</v>
+      </c>
+      <c r="AA21" s="12">
         <f t="shared" si="13"/>
-        <v>46.480522930940836</v>
-      </c>
-      <c r="Z21" s="12">
-        <f t="shared" si="14"/>
-        <v>43.822994652406408</v>
-      </c>
-      <c r="AA21" s="12">
-        <f t="shared" si="15"/>
-        <v>49.160962566844916</v>
-      </c>
-      <c r="AD21" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49.160962566844937</v>
+      </c>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -3438,22 +2313,24 @@
         <v>36.9</v>
       </c>
       <c r="Y22" s="12">
+        <f>V22*$AE$7</f>
+        <v>29.27272727272728</v>
+      </c>
+      <c r="Z22" s="12">
+        <f t="shared" si="12"/>
+        <v>26.775935828877014</v>
+      </c>
+      <c r="AA22" s="12">
         <f t="shared" si="13"/>
-        <v>29.27272727272727</v>
-      </c>
-      <c r="Z22" s="12">
-        <f t="shared" si="14"/>
-        <v>26.775935828877003</v>
-      </c>
-      <c r="AA22" s="12">
-        <f t="shared" si="15"/>
-        <v>31.769518716577533</v>
-      </c>
-      <c r="AD22" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31.769518716577547</v>
+      </c>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
@@ -3507,11 +2384,13 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
-      <c r="AD23" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -3583,15 +2462,20 @@
         <v>48.918708016939284</v>
       </c>
       <c r="Z24" s="12">
-        <f t="shared" ref="Z24" si="16">Z$25*S$24/S$25</f>
+        <f t="shared" ref="Z24" si="14">Z$25*S$24/S$25</f>
         <v>17.688535208661062</v>
       </c>
       <c r="AA24" s="12">
         <f>AA$25*T$24/T$25</f>
         <v>49.470839167670739</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -3659,15 +2543,15 @@
         <v>48.918708016939284</v>
       </c>
       <c r="Z25" s="12">
-        <f t="shared" ref="Z25:AA25" si="17">W25*$AE$6</f>
+        <f t="shared" ref="Z25:AA25" si="15">W25*$AE$6</f>
         <v>38.598130841121517</v>
       </c>
       <c r="AA25" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>59.158878504672927</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -3726,7 +2610,7 @@
         <v>48.255647382920117</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" ref="W26" si="18">W$27*S$26/S$27</f>
+        <f t="shared" ref="W26" si="16">W$27*S$26/S$27</f>
         <v>42.407514450867055</v>
       </c>
       <c r="X26" s="6">
@@ -3738,7 +2622,7 @@
         <v>45.098735871887975</v>
       </c>
       <c r="Z26" s="12">
-        <f t="shared" ref="Z26" si="19">Z$27*S$26/S$27</f>
+        <f t="shared" ref="Z26" si="17">Z$27*S$26/S$27</f>
         <v>39.633191075576704</v>
       </c>
       <c r="AA26" s="12">
@@ -3746,7 +2630,7 @@
         <v>50.772043884599782</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
@@ -3810,19 +2694,19 @@
         <v>49.5</v>
       </c>
       <c r="Y27" s="12">
-        <f t="shared" ref="Y27:Y28" si="20">V27*$AE$6</f>
+        <f t="shared" ref="Y27:Y28" si="18">V27*$AE$6</f>
         <v>41.869158878504692</v>
       </c>
       <c r="Z27" s="12">
-        <f t="shared" ref="Z27:Z28" si="21">W27*$AE$6</f>
+        <f t="shared" ref="Z27:Z28" si="19">W27*$AE$6</f>
         <v>37.570093457943948</v>
       </c>
       <c r="AA27" s="12">
-        <f t="shared" ref="AA27:AA28" si="22">X27*$AE$6</f>
+        <f t="shared" ref="AA27:AA28" si="20">X27*$AE$6</f>
         <v>46.26168224299068</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -3886,19 +2770,19 @@
         <v>31</v>
       </c>
       <c r="Y28" s="12">
+        <f>V28*$AE$6</f>
+        <v>25.514018691588802</v>
+      </c>
+      <c r="Z28" s="12">
+        <f t="shared" si="19"/>
+        <v>21.962616822429919</v>
+      </c>
+      <c r="AA28" s="12">
         <f t="shared" si="20"/>
-        <v>25.514018691588802</v>
-      </c>
-      <c r="Z28" s="12">
-        <f t="shared" si="21"/>
-        <v>21.962616822429919</v>
-      </c>
-      <c r="AA28" s="12">
-        <f t="shared" si="22"/>
         <v>28.971962616822445</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -3943,7 +2827,7 @@
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -4004,7 +2888,7 @@
         <v>50.079736211031168</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" ref="W30" si="23">W$31*S$30/S$31</f>
+        <f t="shared" ref="W30" si="21">W$31*S$30/S$31</f>
         <v>37.131424766977368</v>
       </c>
       <c r="X30" s="6">
@@ -4012,19 +2896,19 @@
         <v>63.6886586695747</v>
       </c>
       <c r="Y30" s="12">
-        <f>Y$31*R$30/R$31</f>
-        <v>43.116778235165867</v>
+        <f>V30*$AE$7</f>
+        <v>43.116778235165881</v>
       </c>
       <c r="Z30" s="12">
-        <f t="shared" ref="Z30" si="24">Z$31*S$30/S$31</f>
-        <v>31.968766777985859</v>
+        <f t="shared" ref="Z30" si="22">Z$31*S$30/S$31</f>
+        <v>31.96876677798587</v>
       </c>
       <c r="AA30" s="12">
         <f>AA$31*T$30/T$31</f>
-        <v>54.833551047066983</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+        <v>54.833551047067004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -4088,19 +2972,19 @@
         <v>59.9</v>
       </c>
       <c r="Y31" s="12">
-        <f>V31*$AE$7</f>
-        <v>44.339572192513366</v>
+        <f t="shared" ref="Y31:Y33" si="23">V31*$AE$7</f>
+        <v>44.33957219251338</v>
       </c>
       <c r="Z31" s="12">
-        <f t="shared" ref="Z31:AA31" si="25">W31*$AE$7</f>
-        <v>37.107486631016037</v>
+        <f t="shared" ref="Z31:AA31" si="24">W31*$AE$7</f>
+        <v>37.107486631016052</v>
       </c>
       <c r="AA31" s="12">
-        <f t="shared" si="25"/>
-        <v>51.571657754010687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>51.571657754010708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -4164,16 +3048,16 @@
         <v>53.7</v>
       </c>
       <c r="Y32" s="12">
-        <f t="shared" ref="Y32:Y33" si="26">V32*$AE$7</f>
-        <v>41.326203208556144</v>
+        <f t="shared" si="23"/>
+        <v>41.326203208556159</v>
       </c>
       <c r="Z32" s="12">
-        <f t="shared" ref="Z32:Z33" si="27">W32*$AE$7</f>
-        <v>36.504812834224595</v>
+        <f t="shared" ref="Z32:Z33" si="25">W32*$AE$7</f>
+        <v>36.504812834224609</v>
       </c>
       <c r="AA32" s="12">
-        <f t="shared" ref="AA32:AA33" si="28">X32*$AE$7</f>
-        <v>46.233689839572186</v>
+        <f t="shared" ref="AA32:AA33" si="26">X32*$AE$7</f>
+        <v>46.233689839572207</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -4240,16 +3124,16 @@
         <v>37.1</v>
       </c>
       <c r="Y33" s="12">
+        <f t="shared" si="23"/>
+        <v>27.378609625668457</v>
+      </c>
+      <c r="Z33" s="12">
+        <f t="shared" si="25"/>
+        <v>22.815508021390379</v>
+      </c>
+      <c r="AA33" s="12">
         <f t="shared" si="26"/>
-        <v>27.378609625668446</v>
-      </c>
-      <c r="Z33" s="12">
-        <f t="shared" si="27"/>
-        <v>22.815508021390372</v>
-      </c>
-      <c r="AA33" s="12">
-        <f t="shared" si="28"/>
-        <v>31.94171122994652</v>
+        <v>31.941711229946534</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
@@ -4367,11 +3251,11 @@
         <v>43</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" ref="W35:X35" si="29">W$37*S$35/S$37</f>
+        <f t="shared" ref="W35:X35" si="27">W$37*S$35/S$37</f>
         <v>28.483777528711371</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>57.32252358490566</v>
       </c>
       <c r="Y35" s="12">
@@ -4379,11 +3263,11 @@
         <v>40.186915887850489</v>
       </c>
       <c r="Z35" s="12">
-        <f t="shared" ref="Z35:AA35" si="30">Z$37*S$35/S$37</f>
+        <f t="shared" ref="Z35:AA35" si="28">Z$37*S$35/S$37</f>
         <v>26.620352830571392</v>
       </c>
       <c r="AA35" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>53.57245194851</v>
       </c>
     </row>
@@ -4445,23 +3329,23 @@
         <v>43</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" ref="W36:X36" si="31">W$37*S$36/S$37</f>
+        <f t="shared" ref="W36:X36" si="29">W$37*S$36/S$37</f>
         <v>31.613862971426908</v>
       </c>
       <c r="X36" s="6">
+        <f t="shared" si="29"/>
+        <v>50.599882075471697</v>
+      </c>
+      <c r="Y36" s="12">
+        <f t="shared" ref="Y36:Y39" si="30">V36*$AE$6</f>
+        <v>40.186915887850489</v>
+      </c>
+      <c r="Z36" s="12">
+        <f t="shared" ref="Z36:AA36" si="31">Z$37*S$36/S$37</f>
+        <v>29.545666328436379</v>
+      </c>
+      <c r="AA36" s="12">
         <f t="shared" si="31"/>
-        <v>50.599882075471697</v>
-      </c>
-      <c r="Y36" s="12">
-        <f t="shared" ref="Y36:Y37" si="32">V36*$AE$6</f>
-        <v>40.186915887850489</v>
-      </c>
-      <c r="Z36" s="12">
-        <f t="shared" ref="Z36:AA36" si="33">Z$37*S$36/S$37</f>
-        <v>29.545666328436379</v>
-      </c>
-      <c r="AA36" s="12">
-        <f t="shared" si="33"/>
         <v>47.289609416328716</v>
       </c>
     </row>
@@ -4529,15 +3413,15 @@
         <v>50.9</v>
       </c>
       <c r="Y37" s="12">
+        <f t="shared" si="30"/>
+        <v>40.186915887850489</v>
+      </c>
+      <c r="Z37" s="12">
+        <f t="shared" ref="Z37:AA37" si="32">W37*$AE$6</f>
+        <v>32.710280373831793</v>
+      </c>
+      <c r="AA37" s="12">
         <f t="shared" si="32"/>
-        <v>40.186915887850489</v>
-      </c>
-      <c r="Z37" s="12">
-        <f t="shared" ref="Z37:AA37" si="34">W37*$AE$6</f>
-        <v>32.710280373831793</v>
-      </c>
-      <c r="AA37" s="12">
-        <f t="shared" si="34"/>
         <v>47.570093457943955</v>
       </c>
     </row>
@@ -4605,15 +3489,15 @@
         <v>24.3</v>
       </c>
       <c r="Y38" s="12">
-        <f>V38*$AE$6</f>
+        <f t="shared" si="30"/>
         <v>16.9158878504673</v>
       </c>
       <c r="Z38" s="12">
-        <f t="shared" ref="Z38" si="35">W38*$AE$6</f>
+        <f t="shared" ref="Z38" si="33">W38*$AE$6</f>
         <v>11.12149532710281</v>
       </c>
       <c r="AA38" s="12">
-        <f t="shared" ref="AA38" si="36">X38*$AE$6</f>
+        <f t="shared" ref="AA38" si="34">X38*$AE$6</f>
         <v>22.71028037383179</v>
       </c>
     </row>
@@ -4676,23 +3560,23 @@
         <v>11.800759878419454</v>
       </c>
       <c r="W39" s="6">
-        <f t="shared" ref="W39:X39" si="37">W$38*S$39/S$38</f>
+        <f t="shared" ref="W39:X39" si="35">W$38*S$39/S$38</f>
         <v>7.5419732441471572</v>
       </c>
       <c r="X39" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>16.245125348189418</v>
       </c>
       <c r="Y39" s="12">
-        <f>V39*$AE$6</f>
+        <f t="shared" si="30"/>
         <v>11.028747549924729</v>
       </c>
       <c r="Z39" s="12">
-        <f t="shared" ref="Z39:AA39" si="38">Z$38*S$39/S$38</f>
+        <f t="shared" ref="Z39:AA39" si="36">Z$38*S$39/S$38</f>
         <v>7.0485731253711794</v>
       </c>
       <c r="AA39" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>15.18236013849479</v>
       </c>
     </row>
@@ -4797,29 +3681,29 @@
       <c r="U41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="18">
+      <c r="V41" s="16">
         <f>V$43*R$41/R$43</f>
         <v>16.079905437352245</v>
       </c>
-      <c r="W41" s="18">
-        <f t="shared" ref="W41:X41" si="39">W$43*S$41/S$43</f>
+      <c r="W41" s="16">
+        <f t="shared" ref="W41:X41" si="37">W$43*S$41/S$43</f>
         <v>9.1989501312335964</v>
       </c>
-      <c r="X41" s="18">
-        <f t="shared" si="39"/>
+      <c r="X41" s="16">
+        <f t="shared" si="37"/>
         <v>23.905161290322578</v>
       </c>
-      <c r="Y41" s="18">
-        <f>Y$43*R$41/R$43</f>
-        <v>13.844196659966371</v>
-      </c>
-      <c r="Z41" s="18">
-        <f t="shared" ref="Z41" si="40">Z$43*V$41/V$43</f>
-        <v>10.139411638285228</v>
-      </c>
-      <c r="AA41" s="18">
-        <f t="shared" ref="AA41" si="41">AA$43*W$41/W$43</f>
-        <v>13.631455359523908</v>
+      <c r="Y41" s="16">
+        <f>V41*$AE$7</f>
+        <v>13.844196659966375</v>
+      </c>
+      <c r="Z41" s="16">
+        <f t="shared" ref="Z41" si="38">Z$43*V$41/V$43</f>
+        <v>10.139411638285234</v>
+      </c>
+      <c r="AA41" s="16">
+        <f t="shared" ref="AA41" si="39">AA$43*W$41/W$43</f>
+        <v>13.631455359523912</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -4876,29 +3760,29 @@
       <c r="U42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V42" s="18">
+      <c r="V42" s="16">
         <f>V$43*R$43/R$44</f>
         <v>13.968837209302325</v>
       </c>
-      <c r="W42" s="18">
+      <c r="W42" s="16">
         <f>W$43*S$42/S$43</f>
         <v>10.262344160104988</v>
       </c>
-      <c r="X42" s="18">
-        <f t="shared" ref="X42" si="42">X$43*T$42/T$43</f>
+      <c r="X42" s="16">
+        <f t="shared" ref="X42" si="40">X$43*T$42/T$43</f>
         <v>20.055698924731182</v>
       </c>
-      <c r="Y42" s="18">
-        <f>Y$43*R$42/R$43</f>
-        <v>12.977127975626095</v>
-      </c>
-      <c r="Z42" s="18">
-        <f t="shared" ref="Z42" si="43">Z$43*V$42/V$43</f>
-        <v>8.8082477303817939</v>
-      </c>
-      <c r="AA42" s="18">
-        <f t="shared" ref="AA42" si="44">AA$43*W$42/W$43</f>
-        <v>15.207244773244835</v>
+      <c r="Y42" s="16">
+        <f t="shared" ref="Y42:Y44" si="41">V42*$AE$7</f>
+        <v>12.02664593955976</v>
+      </c>
+      <c r="Z42" s="16">
+        <f t="shared" ref="Z42" si="42">Z$43*V$42/V$43</f>
+        <v>8.8082477303817956</v>
+      </c>
+      <c r="AA42" s="16">
+        <f t="shared" ref="AA42" si="43">AA$43*W$42/W$43</f>
+        <v>15.207244773244842</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
@@ -4964,17 +3848,17 @@
       <c r="X43" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y43" s="12">
-        <f>V43*$AE$7</f>
-        <v>12.225668449197858</v>
+      <c r="Y43" s="16">
+        <f t="shared" si="41"/>
+        <v>12.225668449197864</v>
       </c>
       <c r="Z43" s="12">
-        <f t="shared" ref="Z43:AA43" si="45">W43*$AE$7</f>
-        <v>8.954010695187165</v>
+        <f t="shared" ref="Z43:AA43" si="44">W43*$AE$7</f>
+        <v>8.9540106951871685</v>
       </c>
       <c r="AA43" s="12">
-        <f t="shared" si="45"/>
-        <v>15.411229946524061</v>
+        <f t="shared" si="44"/>
+        <v>15.411229946524067</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -5040,17 +3924,17 @@
       <c r="X44" s="6">
         <v>18</v>
       </c>
-      <c r="Y44" s="12">
-        <f>V44*$AE$7</f>
-        <v>13.258823529411764</v>
+      <c r="Y44" s="16">
+        <f t="shared" si="41"/>
+        <v>13.258823529411769</v>
       </c>
       <c r="Z44" s="12">
-        <f t="shared" ref="Z44" si="46">W44*$AE$7</f>
-        <v>11.106417112299464</v>
+        <f t="shared" ref="Z44" si="45">W44*$AE$7</f>
+        <v>11.106417112299468</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44" si="47">X44*$AE$7</f>
-        <v>15.497326203208555</v>
+        <f t="shared" ref="AA44" si="46">X44*$AE$7</f>
+        <v>15.49732620320856</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -5234,7 +4118,7 @@
         <v>7.7570093457943976</v>
       </c>
       <c r="Z47" s="12">
-        <f t="shared" ref="Z47" si="48">W47*$AE$6</f>
+        <f t="shared" ref="Z47" si="47">W47*$AE$6</f>
         <v>6.2616822429906582</v>
       </c>
       <c r="AA47" s="12">
@@ -14515,7 +13399,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14526,7 +13409,7 @@
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14540,14 +13423,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
@@ -14571,25 +13454,25 @@
         <v>10-year survival</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="str">
+      <c r="A3" s="17" t="str">
         <f>Sheet1!P7</f>
         <v>Stage 1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="I3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="str">
+      <c r="A4" s="18" t="str">
         <f>Sheet1!P8</f>
         <v>Men</v>
       </c>
@@ -14610,7 +13493,7 @@
       </c>
       <c r="F4">
         <f>Sheet1!Y8</f>
-        <v>72.923529411764704</v>
+        <v>72.923529411764733</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -14635,10 +13518,10 @@
       </c>
       <c r="F5">
         <f>Sheet1!Y9</f>
-        <v>75.42032085561496</v>
+        <v>75.420320855614989</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="5">
         <v>23</v>
@@ -14669,7 +13552,7 @@
       </c>
       <c r="F6">
         <f>Sheet1!Y10</f>
-        <v>69.910160427807483</v>
+        <v>69.910160427807511</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -14706,7 +13589,7 @@
       </c>
       <c r="F7">
         <f>Sheet1!Y11</f>
-        <v>60.009090909090901</v>
+        <v>60.009090909090929</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>14</v>
@@ -14765,7 +13648,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="str">
+      <c r="A9" s="19" t="str">
         <f>Sheet1!P13</f>
         <v>Women</v>
       </c>
@@ -14826,7 +13709,7 @@
       </c>
       <c r="F10">
         <f>Sheet1!Y14</f>
-        <v>80.675802228465528</v>
+        <v>80.675802228465542</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>22</v>
@@ -14935,21 +13818,21 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="str">
+      <c r="A14" s="20" t="str">
         <f>Sheet1!P18</f>
         <v>Stage 2</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
       <c r="I14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="str">
+      <c r="A15" s="18" t="str">
         <f>Sheet1!P19</f>
         <v>Men</v>
       </c>
@@ -14970,7 +13853,7 @@
       </c>
       <c r="F15">
         <f>Sheet1!Y19</f>
-        <v>49.84973262032085</v>
+        <v>49.849732620320864</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -15007,7 +13890,7 @@
       </c>
       <c r="F16">
         <f>Sheet1!Y20</f>
-        <v>47.094652406417111</v>
+        <v>47.094652406417126</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>14</v>
@@ -15019,7 +13902,7 @@
         <f>SUM(K5*K7,L5*L7)/SUM(K5:L5)</f>
         <v>61.594871794871793</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="21">
         <f>SUM(K5*K7,L5*L7)/SUM(K5:L5)</f>
         <v>61.594871794871793</v>
       </c>
@@ -15049,7 +13932,7 @@
       </c>
       <c r="F17">
         <f>Sheet1!Y21</f>
-        <v>46.480522930940836</v>
+        <v>46.480522930940857</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>20</v>
@@ -15089,7 +13972,7 @@
       </c>
       <c r="F18">
         <f>Sheet1!Y22</f>
-        <v>29.27272727272727</v>
+        <v>29.27272727272728</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>21</v>
@@ -15148,7 +14031,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="str">
+      <c r="A20" s="19" t="str">
         <f>Sheet1!P24</f>
         <v>Women</v>
       </c>
@@ -15296,21 +14179,21 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="str">
+      <c r="A25" s="20" t="str">
         <f>Sheet1!P29</f>
         <v>Stage 3</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
       <c r="I25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="str">
+      <c r="A26" s="18" t="str">
         <f>Sheet1!P30</f>
         <v>Men</v>
       </c>
@@ -15318,7 +14201,7 @@
         <f>Sheet1!Q30</f>
         <v>15-44</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="21">
         <f>L56</f>
         <v>80.475000000000009</v>
       </c>
@@ -15331,7 +14214,7 @@
       </c>
       <c r="F26">
         <f>Sheet1!Y30</f>
-        <v>43.116778235165867</v>
+        <v>43.116778235165881</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -15356,7 +14239,7 @@
       </c>
       <c r="F27">
         <f>Sheet1!Y31</f>
-        <v>44.339572192513366</v>
+        <v>44.33957219251338</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -15393,7 +14276,7 @@
       </c>
       <c r="F28">
         <f>Sheet1!Y32</f>
-        <v>41.326203208556144</v>
+        <v>41.326203208556159</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>14</v>
@@ -15425,7 +14308,7 @@
       </c>
       <c r="F29">
         <f>Sheet1!Y33</f>
-        <v>27.378609625668446</v>
+        <v>27.378609625668457</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>20</v>
@@ -15476,7 +14359,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="str">
+      <c r="A31" s="19" t="str">
         <f>Sheet1!P35</f>
         <v>Women</v>
       </c>
@@ -15484,7 +14367,7 @@
         <f>Sheet1!Q35</f>
         <v>15-44</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="21">
         <f>L16</f>
         <v>61.594871794871793</v>
       </c>
@@ -15602,7 +14485,7 @@
         <v>16.9158878504673</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -15630,7 +14513,7 @@
         <v>11.028747549924729</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35" s="5">
         <v>23</v>
@@ -15640,15 +14523,15 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="str">
+      <c r="A36" s="20" t="str">
         <f>Sheet1!P40</f>
         <v>Stage 4</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
       <c r="J36">
         <v>1</v>
       </c>
@@ -15663,7 +14546,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="str">
+      <c r="A37" s="18" t="str">
         <f>Sheet1!P41</f>
         <v>Men</v>
       </c>
@@ -15684,7 +14567,7 @@
       </c>
       <c r="F37">
         <f>Sheet1!Y41</f>
-        <v>13.844196659966371</v>
+        <v>13.844196659966375</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>14</v>
@@ -15714,9 +14597,9 @@
       <c r="E38" s="6">
         <v>14.2</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="21">
         <f>Sheet1!Y42</f>
-        <v>12.977127975626095</v>
+        <v>12.02664593955976</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>20</v>
@@ -15748,7 +14631,7 @@
       </c>
       <c r="F39">
         <f>Sheet1!Y43</f>
-        <v>12.225668449197858</v>
+        <v>12.225668449197864</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>21</v>
@@ -15780,7 +14663,7 @@
       </c>
       <c r="F40">
         <f>Sheet1!Y44</f>
-        <v>13.258823529411764</v>
+        <v>13.258823529411769</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>22</v>
@@ -15823,7 +14706,7 @@
       <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="str">
+      <c r="A42" s="19" t="str">
         <f>Sheet1!P46</f>
         <v>Women</v>
       </c>
@@ -15868,7 +14751,7 @@
         <v>7.7570093457943976</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -15918,7 +14801,7 @@
         <v>7.7570093457943976</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="5">
         <v>35</v>
@@ -15951,7 +14834,7 @@
         <v>7.7570093457943976</v>
       </c>
       <c r="I46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -16104,7 +14987,7 @@
     </row>
     <row r="54" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I54" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="9:19" x14ac:dyDescent="0.25">
@@ -16130,7 +15013,7 @@
         <f>SUM(K45*K48,L45*L48)/SUM(K45:L45)</f>
         <v>80.475000000000009</v>
       </c>
-      <c r="L56" s="23">
+      <c r="L56" s="21">
         <f>SUM(K45*K48,L45*L48)/SUM(K45:L45)</f>
         <v>80.475000000000009</v>
       </c>
@@ -16138,16 +15021,16 @@
     </row>
     <row r="57" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I57" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -16242,7 +15125,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16252,25 +15135,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16372,7 +15255,7 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>1</v>
       </c>
       <c r="D6">
@@ -16395,7 +15278,7 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>1</v>
       </c>
       <c r="D7">
@@ -16418,7 +15301,7 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>0</v>
       </c>
       <c r="D8">
@@ -16441,7 +15324,7 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>0</v>
       </c>
       <c r="D9">
@@ -16464,7 +15347,7 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>0</v>
       </c>
       <c r="D10">
@@ -16487,7 +15370,7 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>0</v>
       </c>
       <c r="D11">
@@ -16510,7 +15393,7 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <v>0</v>
       </c>
       <c r="D12">
@@ -16533,7 +15416,7 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <v>0</v>
       </c>
       <c r="D13">
@@ -16559,19 +15442,19 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="21">
         <f>mortality!C4</f>
         <v>97.2</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <f>mortality!C15</f>
         <v>80.475000000000009</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <f>mortality!C26</f>
         <v>80.475000000000009</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="21">
         <f>mortality!C37</f>
         <v>47.9</v>
       </c>
@@ -16586,18 +15469,18 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="21">
         <v>97.2</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <f>mortality!C15</f>
         <v>80.475000000000009</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <f>mortality!C15</f>
         <v>80.475000000000009</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="21">
         <v>47.9</v>
       </c>
     </row>
@@ -16611,19 +15494,19 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="21">
         <f>mortality!C5</f>
         <v>97.9</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <f>mortality!C16</f>
         <v>85</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="21">
         <f>mortality!C27</f>
         <v>83.4</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="21">
         <f>mortality!C38</f>
         <v>44.9</v>
       </c>
@@ -16638,19 +15521,19 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="21">
         <f>mortality!C6</f>
         <v>98</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <f>mortality!C17</f>
         <v>85.6</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <f>mortality!C28</f>
         <v>78.2</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="21">
         <f>mortality!C39</f>
         <v>42.3</v>
       </c>
@@ -16662,22 +15545,22 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <v>1</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="23">
         <f>mortality!C7</f>
         <v>96.5</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="23">
         <f>mortality!C18</f>
         <v>80.617919921875</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="23">
         <f>mortality!C29</f>
         <v>75.5</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="23">
         <f>mortality!C40</f>
         <v>43</v>
       </c>
@@ -16689,22 +15572,22 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>1</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="23">
         <f>mortality!C8</f>
         <v>92.7</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <f>mortality!C19</f>
         <v>64.3</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="23">
         <f>mortality!C30</f>
         <v>59.8</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="23">
         <f>mortality!C41</f>
         <v>28.3</v>
       </c>
@@ -16716,22 +15599,22 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="22">
         <v>0</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="23">
         <f>mortality!C9</f>
         <v>92.3</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="23">
         <f>mortality!C20</f>
         <v>61.594871794871793</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="23">
         <f>mortality!C31</f>
         <v>61.594871794871793</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="23">
         <f>mortality!C42</f>
         <v>36</v>
       </c>
@@ -16743,21 +15626,21 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <v>0</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="23">
         <v>92.3</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <f>mortality!C20</f>
         <v>61.594871794871793</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="23">
         <f>mortality!C20</f>
         <v>61.594871794871793</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="23">
         <v>36</v>
       </c>
     </row>
@@ -16768,22 +15651,22 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <v>0</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="23">
         <f>mortality!C10</f>
         <v>97.6</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="23">
         <f>mortality!C21</f>
         <v>78.400000000000006</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="23">
         <f>mortality!C32</f>
         <v>72.400000000000006</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="23">
         <f>mortality!C43</f>
         <v>37.299999999999997</v>
       </c>
@@ -16795,22 +15678,22 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <v>0</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="23">
         <f>mortality!C11</f>
         <v>97.8</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="23">
         <f>mortality!C22</f>
         <v>78.2</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="23">
         <f>mortality!C33</f>
         <v>76</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="23">
         <f>mortality!C44</f>
         <v>38.700000000000003</v>
       </c>
@@ -16822,22 +15705,22 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <v>0</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="23">
         <f>mortality!C12</f>
         <v>94.7</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="23">
         <f>mortality!C23</f>
         <v>72.599999999999994</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="23">
         <f>mortality!C34</f>
         <v>65.8</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="23">
         <f>mortality!C45</f>
         <v>34.799999999999997</v>
       </c>
@@ -16849,22 +15732,22 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>0</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="23">
         <f>mortality!C13</f>
         <v>86.5</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <f>mortality!C24</f>
         <v>55.5</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="23">
         <f>mortality!C35</f>
         <v>42.9</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="23">
         <f>mortality!C46</f>
         <v>19.899999999999999</v>
       </c>
@@ -16876,22 +15759,22 @@
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <v>1</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="23">
         <f>mortality!E4</f>
         <v>84.7</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="23">
         <f>mortality!E15</f>
         <v>57.9</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="23">
         <f>mortality!E26</f>
         <v>51.5</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="23">
         <f>mortality!E37</f>
         <v>14.2</v>
       </c>
@@ -16903,19 +15786,19 @@
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <v>1</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="23">
         <v>84.7</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="23">
         <v>57.9</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="23">
         <v>50.079736211031168</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="23">
         <v>16.079905437352245</v>
       </c>
     </row>
@@ -16926,22 +15809,22 @@
       <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="22">
         <v>1</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="23">
         <f>AVERAGE(D27,D29)</f>
         <v>84.7</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="23">
         <f t="shared" ref="E28:F28" si="0">AVERAGE(E27,E29)</f>
         <v>57.9</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="23">
         <f t="shared" si="0"/>
         <v>50.789868105515581</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="23">
         <v>13.968837209302325</v>
       </c>
     </row>
@@ -16952,22 +15835,22 @@
       <c r="B29">
         <v>5</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <v>1</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="23">
         <f>mortality!E5</f>
         <v>84.7</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="23">
         <f>mortality!E16</f>
         <v>57.9</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="23">
         <f>mortality!E27</f>
         <v>51.5</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="23">
         <v>14.2</v>
       </c>
     </row>
@@ -16978,22 +15861,22 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <v>1</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="23">
         <f>mortality!E6</f>
         <v>87.6</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="23">
         <f>mortality!E17</f>
         <v>54.7</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="23">
         <f>mortality!E28</f>
         <v>51.5</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="23">
         <v>15.4</v>
       </c>
     </row>
@@ -17004,22 +15887,22 @@
       <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="22">
         <v>1</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="23">
         <f>mortality!E7</f>
         <v>81.2</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="23">
         <f>mortality!E18</f>
         <v>53.9866943359375</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="23">
         <f>mortality!E29</f>
         <v>48</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="23">
         <f>mortality!E40</f>
         <v>15.4</v>
       </c>
@@ -17031,22 +15914,22 @@
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="22">
         <v>0</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="23">
         <f>mortality!E9</f>
         <v>86.5</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="23">
         <f>mortality!E20</f>
         <v>52.343017578125</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="23">
         <f>mortality!E31</f>
         <v>43</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="23">
         <f>mortality!E42</f>
         <v>8.3000000000000007</v>
       </c>
@@ -17058,20 +15941,20 @@
       <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="22">
         <v>0</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="23">
         <v>81.635480572597132</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="23">
         <f>mortality!E20</f>
         <v>52.343017578125</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="23">
         <v>42.49078947368421</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="23">
         <v>11.215396229413752</v>
       </c>
     </row>
@@ -17082,22 +15965,22 @@
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="22">
         <v>0</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="23">
         <f>mortality!E10</f>
         <v>86.5</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="23">
         <f>mortality!E21</f>
         <v>52.343017578125</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="23">
         <f>mortality!E32</f>
         <v>43</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="23">
         <f>mortality!E42</f>
         <v>8.3000000000000007</v>
       </c>
@@ -17109,22 +15992,22 @@
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="22">
         <v>0</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="23">
         <f>mortality!E11</f>
         <v>86.5</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="23">
         <f>mortality!E22</f>
         <v>48.255647382920117</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="23">
         <f>mortality!E33</f>
         <v>43</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="23">
         <f>mortality!E43</f>
         <v>8.3000000000000007</v>
       </c>
@@ -17136,22 +16019,22 @@
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="22">
         <v>0</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="23">
         <f>mortality!E12</f>
         <v>81</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="23">
         <f>mortality!E23</f>
         <v>44.8</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="23">
         <f>mortality!E34</f>
         <v>18.100000000000001</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="23">
         <f>mortality!E44</f>
         <v>8.3000000000000007</v>
       </c>
@@ -17163,22 +16046,22 @@
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="22">
         <v>0</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="23">
         <f>mortality!E13</f>
         <v>67.599999999999994</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="23">
         <f>mortality!E24</f>
         <v>27.3</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="23">
         <f>mortality!E35</f>
         <v>18.100000000000001</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="23">
         <f>mortality!E45</f>
         <v>8.3000000000000007</v>
       </c>
@@ -17190,24 +16073,24 @@
       <c r="B38">
         <v>10</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="22">
         <v>1</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="23">
         <f>mortality!F4</f>
-        <v>72.923529411764704</v>
-      </c>
-      <c r="E38" s="25">
+        <v>72.923529411764733</v>
+      </c>
+      <c r="E38" s="23">
         <f>mortality!F15</f>
-        <v>49.84973262032085</v>
-      </c>
-      <c r="F38" s="25">
+        <v>49.849732620320864</v>
+      </c>
+      <c r="F38" s="23">
         <f>mortality!F26</f>
-        <v>43.116778235165867</v>
-      </c>
-      <c r="G38" s="25">
+        <v>43.116778235165881</v>
+      </c>
+      <c r="G38" s="23">
         <f>mortality!F37</f>
-        <v>13.844196659966371</v>
+        <v>13.844196659966375</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -17217,24 +16100,24 @@
       <c r="B39">
         <v>10</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="22">
         <v>1</v>
       </c>
-      <c r="D39" s="25">
-        <f>D38+($D$41-$D$38)/4</f>
-        <v>73.547727272727272</v>
-      </c>
-      <c r="E39" s="25">
-        <f>E38+($D$41-$D$38)/4</f>
-        <v>50.473930481283418</v>
-      </c>
-      <c r="F39" s="25">
-        <f>F38+($D$41-$D$38)/4</f>
-        <v>43.740976096128435</v>
-      </c>
-      <c r="G39" s="25">
+      <c r="D39" s="23">
+        <f t="shared" ref="D39:F40" si="1">D38+($D$41-$D$38)/4</f>
+        <v>73.5477272727273</v>
+      </c>
+      <c r="E39" s="23">
+        <f t="shared" si="1"/>
+        <v>50.473930481283432</v>
+      </c>
+      <c r="F39" s="23">
+        <f t="shared" si="1"/>
+        <v>43.740976096128449</v>
+      </c>
+      <c r="G39" s="23">
         <f>mortality!F38</f>
-        <v>12.977127975626095</v>
+        <v>12.02664593955976</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -17244,22 +16127,22 @@
       <c r="B40">
         <v>10</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="22">
         <v>1</v>
       </c>
-      <c r="D40" s="25">
-        <f>D39+($D$41-$D$38)/4</f>
-        <v>74.17192513368984</v>
-      </c>
-      <c r="E40" s="25">
-        <f>E39+($D$41-$D$38)/4</f>
-        <v>51.098128342245985</v>
-      </c>
-      <c r="F40" s="25">
-        <f>F39+($D$41-$D$38)/4</f>
-        <v>44.365173957091002</v>
-      </c>
-      <c r="G40" s="25">
+      <c r="D40" s="23">
+        <f t="shared" si="1"/>
+        <v>74.171925133689868</v>
+      </c>
+      <c r="E40" s="23">
+        <f t="shared" si="1"/>
+        <v>51.098128342246</v>
+      </c>
+      <c r="F40" s="23">
+        <f t="shared" si="1"/>
+        <v>44.365173957091017</v>
+      </c>
+      <c r="G40" s="23">
         <v>12.977127975626095</v>
       </c>
     </row>
@@ -17270,22 +16153,22 @@
       <c r="B41">
         <v>10</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="22">
         <v>1</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="23">
         <f>mortality!F5</f>
-        <v>75.42032085561496</v>
-      </c>
-      <c r="E41" s="25">
+        <v>75.420320855614989</v>
+      </c>
+      <c r="E41" s="23">
         <f>mortality!F16</f>
-        <v>47.094652406417111</v>
-      </c>
-      <c r="F41" s="25">
+        <v>47.094652406417126</v>
+      </c>
+      <c r="F41" s="23">
         <f>mortality!F27</f>
-        <v>44.339572192513366</v>
-      </c>
-      <c r="G41" s="25">
+        <v>44.33957219251338</v>
+      </c>
+      <c r="G41" s="23">
         <v>12.225668449197858</v>
       </c>
     </row>
@@ -17296,21 +16179,21 @@
       <c r="B42">
         <v>10</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="22">
         <v>1</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="23">
         <f>mortality!F6</f>
-        <v>69.910160427807483</v>
-      </c>
-      <c r="E42" s="25">
+        <v>69.910160427807511</v>
+      </c>
+      <c r="E42" s="23">
         <f>mortality!F17</f>
-        <v>46.480522930940836</v>
-      </c>
-      <c r="F42" s="25">
+        <v>46.480522930940857</v>
+      </c>
+      <c r="F42" s="23">
         <v>27.378609625668446</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="23">
         <v>13.258823529411764</v>
       </c>
     </row>
@@ -17321,24 +16204,24 @@
       <c r="B43">
         <v>10</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="22">
         <v>1</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="23">
         <f>mortality!F7</f>
-        <v>60.009090909090901</v>
-      </c>
-      <c r="E43" s="25">
+        <v>60.009090909090929</v>
+      </c>
+      <c r="E43" s="23">
         <f>mortality!F18</f>
-        <v>29.27272727272727</v>
-      </c>
-      <c r="F43" s="25">
+        <v>29.27272727272728</v>
+      </c>
+      <c r="F43" s="23">
         <f>mortality!F29</f>
-        <v>27.378609625668446</v>
-      </c>
-      <c r="G43" s="25">
+        <v>27.378609625668457</v>
+      </c>
+      <c r="G43" s="23">
         <f>mortality!F40</f>
-        <v>13.258823529411764</v>
+        <v>13.258823529411769</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -17348,22 +16231,22 @@
       <c r="B44">
         <v>10</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="22">
         <v>0</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="23">
         <f>mortality!F9</f>
         <v>76.294841656632883</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="23">
         <f>mortality!F20</f>
         <v>48.918708016939284</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="23">
         <f>mortality!F31</f>
         <v>40.186915887850489</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="23">
         <f>mortality!$F$42</f>
         <v>7.7570093457943976</v>
       </c>
@@ -17375,21 +16258,21 @@
       <c r="B45">
         <v>10</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="22">
         <v>0</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="23">
         <v>76.294841656632883</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="23">
         <f>mortality!F21</f>
         <v>48.918708016939284</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="23">
         <f>mortality!F32</f>
         <v>40.186915887850489</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="23">
         <f>mortality!$F$42</f>
         <v>7.7570093457943976</v>
       </c>
@@ -17401,22 +16284,22 @@
       <c r="B46">
         <v>10</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="22">
         <v>0</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="23">
         <f>mortality!F10</f>
-        <v>80.675802228465528</v>
-      </c>
-      <c r="E46" s="25">
+        <v>80.675802228465542</v>
+      </c>
+      <c r="E46" s="23">
         <f>mortality!F21</f>
         <v>48.918708016939284</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="23">
         <f>mortality!F32</f>
         <v>40.186915887850489</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="23">
         <f>mortality!$F$42</f>
         <v>7.7570093457943976</v>
       </c>
@@ -17428,22 +16311,22 @@
       <c r="B47">
         <v>10</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="22">
         <v>0</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="23">
         <f>mortality!F11</f>
         <v>80.841121495327144</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="23">
         <f>mortality!F22</f>
         <v>45.098735871887975</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="23">
         <f>mortality!F33</f>
         <v>40.186915887850489</v>
       </c>
-      <c r="G47" s="25">
+      <c r="G47" s="23">
         <f>mortality!$F$42</f>
         <v>7.7570093457943976</v>
       </c>
@@ -17455,22 +16338,22 @@
       <c r="B48">
         <v>10</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="22">
         <v>0</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="23">
         <f>mortality!F12</f>
         <v>75.700934579439291</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="23">
         <f>mortality!F23</f>
         <v>41.869158878504692</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="23">
         <f>mortality!F34</f>
         <v>16.9158878504673</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G48" s="23">
         <f>mortality!$F$42</f>
         <v>7.7570093457943976</v>
       </c>
@@ -17482,22 +16365,22 @@
       <c r="B49">
         <v>10</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="22">
         <v>0</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="23">
         <f>mortality!F13</f>
         <v>63.177570093457973</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="23">
         <f>mortality!F24</f>
         <v>25.514018691588802</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="23">
         <f>mortality!F35</f>
         <v>11.028747549924729</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="23">
         <f>mortality!$F$42</f>
         <v>7.7570093457943976</v>
       </c>
